--- a/Code/Results/Cases/Case_5_210/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_210/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.21920714219982</v>
+        <v>9.516480729190736</v>
       </c>
       <c r="C2">
-        <v>8.407551725677623</v>
+        <v>6.145569675762306</v>
       </c>
       <c r="D2">
-        <v>4.534017336983686</v>
+        <v>4.836593880964276</v>
       </c>
       <c r="E2">
-        <v>29.49472624401809</v>
+        <v>16.45662231652856</v>
       </c>
       <c r="F2">
-        <v>19.328791617167</v>
+        <v>24.34937062023394</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.80591899590203</v>
+        <v>8.667571513691255</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.38408548406782</v>
+        <v>21.75015368155668</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.30513556517454</v>
+        <v>9.170275331694175</v>
       </c>
       <c r="C3">
-        <v>8.042540645066357</v>
+        <v>5.978901922792333</v>
       </c>
       <c r="D3">
-        <v>4.427146311812486</v>
+        <v>4.795374274760983</v>
       </c>
       <c r="E3">
-        <v>27.35761363206442</v>
+        <v>15.52626842187455</v>
       </c>
       <c r="F3">
-        <v>18.88533349280883</v>
+        <v>24.35783602769008</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.09314171496388</v>
+        <v>8.417167355826319</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.28510591533704</v>
+        <v>21.81322534259342</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.71264551730437</v>
+        <v>8.952472728208978</v>
       </c>
       <c r="C4">
-        <v>7.810054773989972</v>
+        <v>5.873289745482114</v>
       </c>
       <c r="D4">
-        <v>4.359701252850225</v>
+        <v>4.769532975394977</v>
       </c>
       <c r="E4">
-        <v>25.98241889044706</v>
+        <v>14.93045656831965</v>
       </c>
       <c r="F4">
-        <v>18.63061715211503</v>
+        <v>24.37059821565606</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.63413850295077</v>
+        <v>8.260876708963771</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.2416668989833</v>
+        <v>21.85763764166023</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.46331903210864</v>
+        <v>8.862542160691723</v>
       </c>
       <c r="C5">
-        <v>7.71327626619132</v>
+        <v>5.829467662113047</v>
       </c>
       <c r="D5">
-        <v>4.331781933922028</v>
+        <v>4.758873257366678</v>
       </c>
       <c r="E5">
-        <v>25.40586605293852</v>
+        <v>14.68175075304579</v>
       </c>
       <c r="F5">
-        <v>18.53122681844833</v>
+        <v>24.37769639679654</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.44177606205544</v>
+        <v>8.196645470465585</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.22813591738876</v>
+        <v>21.87715984649082</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.42144198364854</v>
+        <v>8.847542731773242</v>
       </c>
       <c r="C6">
-        <v>7.697085309579944</v>
+        <v>5.822144897733559</v>
       </c>
       <c r="D6">
-        <v>4.327120424379973</v>
+        <v>4.75709555491729</v>
       </c>
       <c r="E6">
-        <v>25.30914581244691</v>
+        <v>14.64010549543989</v>
       </c>
       <c r="F6">
-        <v>18.51498883269073</v>
+        <v>24.37898948570594</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.40951543571549</v>
+        <v>8.185950188363023</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.22613541118825</v>
+        <v>21.88048730981546</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.7093149525238</v>
+        <v>8.951264450970255</v>
       </c>
       <c r="C7">
-        <v>7.808757743486117</v>
+        <v>5.872701865985924</v>
       </c>
       <c r="D7">
-        <v>4.359326450904581</v>
+        <v>4.769389731554961</v>
       </c>
       <c r="E7">
-        <v>25.97470908219675</v>
+        <v>14.92712595775056</v>
       </c>
       <c r="F7">
-        <v>18.62925891202858</v>
+        <v>24.37068626856856</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.63156566786606</v>
+        <v>8.260012523168339</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.24146778055976</v>
+        <v>21.85789516805771</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.91050235193873</v>
+        <v>9.398275280443928</v>
       </c>
       <c r="C8">
-        <v>8.283467874478905</v>
+        <v>6.088805846638945</v>
       </c>
       <c r="D8">
-        <v>4.497561165151922</v>
+        <v>4.822494617429512</v>
       </c>
       <c r="E8">
-        <v>28.77073371956418</v>
+        <v>16.14108283617103</v>
       </c>
       <c r="F8">
-        <v>19.17223954249555</v>
+        <v>24.35071711371972</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.56461235268025</v>
+        <v>8.581816195715779</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.34624794262035</v>
+        <v>21.77071714308888</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.01973790865352</v>
+        <v>10.22784338344549</v>
       </c>
       <c r="C9">
-        <v>9.145761404020696</v>
+        <v>6.484986292711686</v>
       </c>
       <c r="D9">
-        <v>4.753173975679983</v>
+        <v>4.922209317477389</v>
       </c>
       <c r="E9">
-        <v>33.76883585697848</v>
+        <v>18.38985695548253</v>
       </c>
       <c r="F9">
-        <v>20.37629323313796</v>
+        <v>24.37172484708007</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.22346428552391</v>
+        <v>9.18875105425378</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.69737945020623</v>
+        <v>21.64513309329788</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.42215747942386</v>
+        <v>10.80220830364149</v>
       </c>
       <c r="C10">
-        <v>9.735358898434017</v>
+        <v>6.757320038897209</v>
       </c>
       <c r="D10">
-        <v>4.930353779446372</v>
+        <v>4.992511965249291</v>
       </c>
       <c r="E10">
-        <v>37.16804841958296</v>
+        <v>20.02410079230793</v>
       </c>
       <c r="F10">
-        <v>21.34534035595631</v>
+        <v>24.42395079512897</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.337429929304</v>
+        <v>9.643766359580635</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.05480546052782</v>
+        <v>21.58085853345163</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.02897312218361</v>
+        <v>11.05475985586883</v>
       </c>
       <c r="C11">
-        <v>9.99382526552391</v>
+        <v>6.876796906513165</v>
       </c>
       <c r="D11">
-        <v>5.008431976176325</v>
+        <v>5.02379868257298</v>
       </c>
       <c r="E11">
-        <v>38.66082010256937</v>
+        <v>20.72552826646213</v>
       </c>
       <c r="F11">
-        <v>21.80443731917899</v>
+        <v>24.45569190829972</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.82161493514814</v>
+        <v>9.886044951325937</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.24116397814497</v>
+        <v>21.55776100325154</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.25435262702272</v>
+        <v>11.14906124350817</v>
       </c>
       <c r="C12">
-        <v>10.09029336811056</v>
+        <v>6.921380482161394</v>
       </c>
       <c r="D12">
-        <v>5.037619154419929</v>
+        <v>5.035541896473295</v>
       </c>
       <c r="E12">
-        <v>39.21891995466428</v>
+        <v>20.98513751507768</v>
       </c>
       <c r="F12">
-        <v>21.98091542420277</v>
+        <v>24.46885627261065</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.00174808186334</v>
+        <v>9.976025520641786</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.3153211241867</v>
+        <v>21.54990236830025</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.20600796359704</v>
+        <v>11.12881225169555</v>
       </c>
       <c r="C13">
-        <v>10.06957983078534</v>
+        <v>6.911808333974788</v>
       </c>
       <c r="D13">
-        <v>5.031350295685145</v>
+        <v>5.033017499027092</v>
       </c>
       <c r="E13">
-        <v>39.09903360651397</v>
+        <v>20.92949261587217</v>
       </c>
       <c r="F13">
-        <v>21.94279064939391</v>
+        <v>24.46597024946954</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.96309570857654</v>
+        <v>9.956725541476844</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.29918782805658</v>
+        <v>21.55155530436786</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.0476031443697</v>
+        <v>11.06254524801398</v>
       </c>
       <c r="C14">
-        <v>10.00178996389606</v>
+        <v>6.880478183748597</v>
       </c>
       <c r="D14">
-        <v>5.010840916125716</v>
+        <v>5.024766921545899</v>
       </c>
       <c r="E14">
-        <v>38.70687603241068</v>
+        <v>20.74700665777473</v>
       </c>
       <c r="F14">
-        <v>21.8189035515865</v>
+        <v>24.45675203145113</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.83649887579715</v>
+        <v>9.893483242851399</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.24719207178844</v>
+        <v>21.55709664779564</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.95000376353468</v>
+        <v>11.02177884345361</v>
       </c>
       <c r="C15">
-        <v>9.960083395884725</v>
+        <v>6.861200929279899</v>
       </c>
       <c r="D15">
-        <v>4.998228455990593</v>
+        <v>5.019699477398432</v>
       </c>
       <c r="E15">
-        <v>38.46574951684465</v>
+        <v>20.63444754702569</v>
       </c>
       <c r="F15">
-        <v>21.7433616493095</v>
+        <v>24.45125455560734</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.75853670185498</v>
+        <v>9.854514801772407</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.21581533897477</v>
+        <v>21.56060664661999</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.38187969813768</v>
+        <v>10.78552080502791</v>
       </c>
       <c r="C16">
-        <v>9.718270671167902</v>
+        <v>6.749420964820557</v>
       </c>
       <c r="D16">
-        <v>4.925198979680527</v>
+        <v>4.990452942181182</v>
       </c>
       <c r="E16">
-        <v>37.06945788973215</v>
+        <v>19.97741858707064</v>
       </c>
       <c r="F16">
-        <v>21.31570469349655</v>
+        <v>24.42203683650267</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.30533533341337</v>
+        <v>9.627687477329481</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.04311927364409</v>
+        <v>21.5824920080862</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.02542337292926</v>
+        <v>10.63828866698727</v>
       </c>
       <c r="C17">
-        <v>9.56742303563469</v>
+        <v>6.679699166830698</v>
       </c>
       <c r="D17">
-        <v>4.879739523298964</v>
+        <v>4.972330040193248</v>
       </c>
       <c r="E17">
-        <v>36.19951549422058</v>
+        <v>19.5636195268713</v>
       </c>
       <c r="F17">
-        <v>21.05802704461188</v>
+        <v>24.40615556839113</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.02154759348053</v>
+        <v>9.492996367106738</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.94338417002366</v>
+        <v>21.59749443083587</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.8174621987505</v>
+        <v>10.5527869720354</v>
       </c>
       <c r="C18">
-        <v>9.479742012536757</v>
+        <v>6.639183387809802</v>
       </c>
       <c r="D18">
-        <v>4.853355988218047</v>
+        <v>4.961841139402031</v>
       </c>
       <c r="E18">
-        <v>35.69407325195277</v>
+        <v>19.32165820945409</v>
       </c>
       <c r="F18">
-        <v>20.91153687032385</v>
+        <v>24.39777280098816</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.85619418810232</v>
+        <v>9.429424487323439</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.88824600925362</v>
+        <v>21.6067012124893</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.74654365803892</v>
+        <v>10.52369971070439</v>
       </c>
       <c r="C19">
-        <v>9.449897502159263</v>
+        <v>6.625395223770549</v>
       </c>
       <c r="D19">
-        <v>4.84438289745968</v>
+        <v>4.958278739483628</v>
       </c>
       <c r="E19">
-        <v>35.52205275093722</v>
+        <v>19.23905396751063</v>
       </c>
       <c r="F19">
-        <v>20.86223330168219</v>
+        <v>24.39506372327351</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.799842549814</v>
+        <v>9.407820200038252</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.86995440883393</v>
+        <v>21.6099175534514</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.06367222693148</v>
+        <v>10.65404700959025</v>
       </c>
       <c r="C20">
-        <v>9.583576053161126</v>
+        <v>6.687164176477273</v>
       </c>
       <c r="D20">
-        <v>4.884603358140479</v>
+        <v>4.974266023574772</v>
       </c>
       <c r="E20">
-        <v>36.29264394516626</v>
+        <v>19.60807823426343</v>
       </c>
       <c r="F20">
-        <v>21.08527938315047</v>
+        <v>24.40776837536797</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.0519771761403</v>
+        <v>9.504723621468671</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.9537694334379</v>
+        <v>21.59583756276172</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.09424951519863</v>
+        <v>11.08204626844024</v>
       </c>
       <c r="C21">
-        <v>10.02173969162781</v>
+        <v>6.88969870471881</v>
       </c>
       <c r="D21">
-        <v>5.016875439397565</v>
+        <v>5.027193184834267</v>
       </c>
       <c r="E21">
-        <v>38.82225265728624</v>
+        <v>20.80076994803952</v>
       </c>
       <c r="F21">
-        <v>21.8552207906367</v>
+        <v>24.45942861275837</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.87377047086171</v>
+        <v>9.912107166817567</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.26236578545596</v>
+        <v>21.55544488738954</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.74213460368738</v>
+        <v>11.35396088979218</v>
       </c>
       <c r="C22">
-        <v>10.29990495312665</v>
+        <v>7.018211269704229</v>
       </c>
       <c r="D22">
-        <v>5.101105028891964</v>
+        <v>5.061173671832614</v>
       </c>
       <c r="E22">
-        <v>40.43393090339556</v>
+        <v>21.54526994555995</v>
       </c>
       <c r="F22">
-        <v>22.37375270426605</v>
+        <v>24.49986109966788</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.39212865624366</v>
+        <v>10.17069553988727</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.48503832982752</v>
+        <v>21.53422322998391</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.39866809962443</v>
+        <v>11.20957287717488</v>
       </c>
       <c r="C23">
-        <v>10.15219276040665</v>
+        <v>6.949982286849937</v>
       </c>
       <c r="D23">
-        <v>5.056358206408744</v>
+        <v>5.043094976288482</v>
       </c>
       <c r="E23">
-        <v>39.57736373528367</v>
+        <v>21.15110724077333</v>
       </c>
       <c r="F23">
-        <v>22.09559527312878</v>
+        <v>24.47767274343281</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.11717291444835</v>
+        <v>10.03363346111814</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.36421774588868</v>
+        <v>21.54507442634601</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.04638936211649</v>
+        <v>10.64692532296122</v>
       </c>
       <c r="C24">
-        <v>9.576276253273617</v>
+        <v>6.683790588622301</v>
       </c>
       <c r="D24">
-        <v>4.882405190489695</v>
+        <v>4.973390982536907</v>
       </c>
       <c r="E24">
-        <v>36.250557121696</v>
+        <v>19.58799111030698</v>
       </c>
       <c r="F24">
-        <v>21.07295345464659</v>
+        <v>24.40703689632937</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.03822681642418</v>
+        <v>9.499423301351545</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.94906741349103</v>
+        <v>21.59658482115925</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.47523086482325</v>
+        <v>10.00917268723481</v>
       </c>
       <c r="C25">
-        <v>8.920093529360138</v>
+        <v>6.380973029697323</v>
       </c>
       <c r="D25">
-        <v>4.685808897707576</v>
+        <v>4.895734711070337</v>
       </c>
       <c r="E25">
-        <v>32.46640447453713</v>
+        <v>17.75155183517436</v>
       </c>
       <c r="F25">
-        <v>20.03569200724032</v>
+        <v>24.359582982698</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.79311541738586</v>
+        <v>9.027665718823961</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.5856717537178</v>
+        <v>21.67421395519014</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_210/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_210/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.516480729190736</v>
+        <v>14.21920714219969</v>
       </c>
       <c r="C2">
-        <v>6.145569675762306</v>
+        <v>8.407551725677816</v>
       </c>
       <c r="D2">
-        <v>4.836593880964276</v>
+        <v>4.534017336983739</v>
       </c>
       <c r="E2">
-        <v>16.45662231652856</v>
+        <v>29.49472624401807</v>
       </c>
       <c r="F2">
-        <v>24.34937062023394</v>
+        <v>19.32879161716697</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.667571513691255</v>
+        <v>12.805918995902</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.75015368155668</v>
+        <v>15.38408548406782</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.170275331694175</v>
+        <v>13.30513556517455</v>
       </c>
       <c r="C3">
-        <v>5.978901922792333</v>
+        <v>8.042540645066357</v>
       </c>
       <c r="D3">
-        <v>4.795374274760983</v>
+        <v>4.427146311812489</v>
       </c>
       <c r="E3">
-        <v>15.52626842187455</v>
+        <v>27.35761363206445</v>
       </c>
       <c r="F3">
-        <v>24.35783602769008</v>
+        <v>18.88533349280883</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.417167355826319</v>
+        <v>12.09314171496388</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.81322534259342</v>
+        <v>15.28510591533704</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.952472728208978</v>
+        <v>12.71264551730433</v>
       </c>
       <c r="C4">
-        <v>5.873289745482114</v>
+        <v>7.810054773990009</v>
       </c>
       <c r="D4">
-        <v>4.769532975394977</v>
+        <v>4.359701252850271</v>
       </c>
       <c r="E4">
-        <v>14.93045656831965</v>
+        <v>25.9824188904471</v>
       </c>
       <c r="F4">
-        <v>24.37059821565606</v>
+        <v>18.63061715211493</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.260876708963771</v>
+        <v>11.63413850295075</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.85763764166023</v>
+        <v>15.24166689898329</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.862542160691723</v>
+        <v>12.46331903210861</v>
       </c>
       <c r="C5">
-        <v>5.829467662113047</v>
+        <v>7.713276266191663</v>
       </c>
       <c r="D5">
-        <v>4.758873257366678</v>
+        <v>4.331781933921918</v>
       </c>
       <c r="E5">
-        <v>14.68175075304579</v>
+        <v>25.40586605293846</v>
       </c>
       <c r="F5">
-        <v>24.37769639679654</v>
+        <v>18.53122681844811</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.196645470465585</v>
+        <v>11.44177606205552</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.87715984649082</v>
+        <v>15.22813591738856</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.847542731773242</v>
+        <v>12.42144198364853</v>
       </c>
       <c r="C6">
-        <v>5.822144897733559</v>
+        <v>7.697085309579971</v>
       </c>
       <c r="D6">
-        <v>4.75709555491729</v>
+        <v>4.327120424379726</v>
       </c>
       <c r="E6">
-        <v>14.64010549543989</v>
+        <v>25.30914581244681</v>
       </c>
       <c r="F6">
-        <v>24.37898948570594</v>
+        <v>18.51498883269058</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.185950188363023</v>
+        <v>11.40951543571552</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.88048730981546</v>
+        <v>15.22613541118809</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.951264450970255</v>
+        <v>12.70931495252381</v>
       </c>
       <c r="C7">
-        <v>5.872701865985924</v>
+        <v>7.808757743486305</v>
       </c>
       <c r="D7">
-        <v>4.769389731554961</v>
+        <v>4.359326450904702</v>
       </c>
       <c r="E7">
-        <v>14.92712595775056</v>
+        <v>25.97470908219679</v>
       </c>
       <c r="F7">
-        <v>24.37068626856856</v>
+        <v>18.6292589120285</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.260012523168339</v>
+        <v>11.63156566786607</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.85789516805771</v>
+        <v>15.24146778055971</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.398275280443928</v>
+        <v>13.91050235193876</v>
       </c>
       <c r="C8">
-        <v>6.088805846638945</v>
+        <v>8.28346787447901</v>
       </c>
       <c r="D8">
-        <v>4.822494617429512</v>
+        <v>4.497561165151941</v>
       </c>
       <c r="E8">
-        <v>16.14108283617103</v>
+        <v>28.77073371956421</v>
       </c>
       <c r="F8">
-        <v>24.35071711371972</v>
+        <v>19.17223954249535</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.581816195715779</v>
+        <v>12.56461235268036</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.77071714308888</v>
+        <v>15.34624794262014</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.22784338344549</v>
+        <v>16.01973790865349</v>
       </c>
       <c r="C9">
-        <v>6.484986292711686</v>
+        <v>9.145761404020583</v>
       </c>
       <c r="D9">
-        <v>4.922209317477389</v>
+        <v>4.753173975680101</v>
       </c>
       <c r="E9">
-        <v>18.38985695548253</v>
+        <v>33.76883585697851</v>
       </c>
       <c r="F9">
-        <v>24.37172484708007</v>
+        <v>20.37629323313811</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.18875105425378</v>
+        <v>14.22346428552382</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.64513309329788</v>
+        <v>15.69737945020641</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.80220830364149</v>
+        <v>17.42215747942384</v>
       </c>
       <c r="C10">
-        <v>6.757320038897209</v>
+        <v>9.735358898434029</v>
       </c>
       <c r="D10">
-        <v>4.992511965249291</v>
+        <v>4.930353779446359</v>
       </c>
       <c r="E10">
-        <v>20.02410079230793</v>
+        <v>37.16804841958299</v>
       </c>
       <c r="F10">
-        <v>24.42395079512897</v>
+        <v>21.34534035595627</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.643766359580635</v>
+        <v>15.33742992930396</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.58085853345163</v>
+        <v>16.0548054605278</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.05475985586883</v>
+        <v>18.02897312218361</v>
       </c>
       <c r="C11">
-        <v>6.876796906513165</v>
+        <v>9.993825265523906</v>
       </c>
       <c r="D11">
-        <v>5.02379868257298</v>
+        <v>5.008431976176361</v>
       </c>
       <c r="E11">
-        <v>20.72552826646213</v>
+        <v>38.66082010256945</v>
       </c>
       <c r="F11">
-        <v>24.45569190829972</v>
+        <v>21.80443731917896</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.886044951325937</v>
+        <v>15.82161493514814</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.55776100325154</v>
+        <v>16.24116397814496</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.14906124350817</v>
+        <v>18.25435262702275</v>
       </c>
       <c r="C12">
-        <v>6.921380482161394</v>
+        <v>10.09029336811054</v>
       </c>
       <c r="D12">
-        <v>5.035541896473295</v>
+        <v>5.037619154419869</v>
       </c>
       <c r="E12">
-        <v>20.98513751507768</v>
+        <v>39.21891995466428</v>
       </c>
       <c r="F12">
-        <v>24.46885627261065</v>
+        <v>21.98091542420282</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.976025520641786</v>
+        <v>16.00174808186337</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.54990236830025</v>
+        <v>16.31532112418674</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.12881225169555</v>
+        <v>18.20600796359702</v>
       </c>
       <c r="C13">
-        <v>6.911808333974788</v>
+        <v>10.06957983078526</v>
       </c>
       <c r="D13">
-        <v>5.033017499027092</v>
+        <v>5.031350295685133</v>
       </c>
       <c r="E13">
-        <v>20.92949261587217</v>
+        <v>39.09903360651411</v>
       </c>
       <c r="F13">
-        <v>24.46597024946954</v>
+        <v>21.94279064939391</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.956725541476844</v>
+        <v>15.96309570857651</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.55155530436786</v>
+        <v>16.29918782805658</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.06254524801398</v>
+        <v>18.04760314436984</v>
       </c>
       <c r="C14">
-        <v>6.880478183748597</v>
+        <v>10.00178996389598</v>
       </c>
       <c r="D14">
-        <v>5.024766921545899</v>
+        <v>5.010840916125668</v>
       </c>
       <c r="E14">
-        <v>20.74700665777473</v>
+        <v>38.70687603241068</v>
       </c>
       <c r="F14">
-        <v>24.45675203145113</v>
+        <v>21.81890355158648</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.893483242851399</v>
+        <v>15.83649887579724</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.55709664779564</v>
+        <v>16.24719207178838</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.02177884345361</v>
+        <v>17.95000376353471</v>
       </c>
       <c r="C15">
-        <v>6.861200929279899</v>
+        <v>9.960083395884901</v>
       </c>
       <c r="D15">
-        <v>5.019699477398432</v>
+        <v>4.998228455990474</v>
       </c>
       <c r="E15">
-        <v>20.63444754702569</v>
+        <v>38.46574951684468</v>
       </c>
       <c r="F15">
-        <v>24.45125455560734</v>
+        <v>21.74336164930945</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.854514801772407</v>
+        <v>15.75853670185505</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.56060664661999</v>
+        <v>16.21581533897468</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.78552080502791</v>
+        <v>17.38187969813771</v>
       </c>
       <c r="C16">
-        <v>6.749420964820557</v>
+        <v>9.718270671167874</v>
       </c>
       <c r="D16">
-        <v>4.990452942181182</v>
+        <v>4.925198979680612</v>
       </c>
       <c r="E16">
-        <v>19.97741858707064</v>
+        <v>37.06945788973216</v>
       </c>
       <c r="F16">
-        <v>24.42203683650267</v>
+        <v>21.31570469349649</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.627687477329481</v>
+        <v>15.30533533341334</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.5824920080862</v>
+        <v>16.04311927364403</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.63828866698727</v>
+        <v>17.02542337292933</v>
       </c>
       <c r="C17">
-        <v>6.679699166830698</v>
+        <v>9.567423035634615</v>
       </c>
       <c r="D17">
-        <v>4.972330040193248</v>
+        <v>4.879739523298976</v>
       </c>
       <c r="E17">
-        <v>19.5636195268713</v>
+        <v>36.19951549422074</v>
       </c>
       <c r="F17">
-        <v>24.40615556839113</v>
+        <v>21.0580270446118</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.492996367106738</v>
+        <v>15.02154759348054</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.59749443083587</v>
+        <v>15.94338417002357</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.5527869720354</v>
+        <v>16.81746219875058</v>
       </c>
       <c r="C18">
-        <v>6.639183387809802</v>
+        <v>9.479742012536786</v>
       </c>
       <c r="D18">
-        <v>4.961841139402031</v>
+        <v>4.853355988218102</v>
       </c>
       <c r="E18">
-        <v>19.32165820945409</v>
+        <v>35.69407325195274</v>
       </c>
       <c r="F18">
-        <v>24.39777280098816</v>
+        <v>20.91153687032368</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.429424487323439</v>
+        <v>14.85619418810241</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.6067012124893</v>
+        <v>15.88824600925348</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.52369971070439</v>
+        <v>16.74654365803883</v>
       </c>
       <c r="C19">
-        <v>6.625395223770549</v>
+        <v>9.449897502159335</v>
       </c>
       <c r="D19">
-        <v>4.958278739483628</v>
+        <v>4.84438289745962</v>
       </c>
       <c r="E19">
-        <v>19.23905396751063</v>
+        <v>35.52205275093723</v>
       </c>
       <c r="F19">
-        <v>24.39506372327351</v>
+        <v>20.86223330168227</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.407820200038252</v>
+        <v>14.79984254981395</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.6099175534514</v>
+        <v>15.86995440883404</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.65404700959025</v>
+        <v>17.06367222693146</v>
       </c>
       <c r="C20">
-        <v>6.687164176477273</v>
+        <v>9.583576053161126</v>
       </c>
       <c r="D20">
-        <v>4.974266023574772</v>
+        <v>4.884603358140376</v>
       </c>
       <c r="E20">
-        <v>19.60807823426343</v>
+        <v>36.29264394516631</v>
       </c>
       <c r="F20">
-        <v>24.40776837536797</v>
+        <v>21.0852793831505</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.504723621468671</v>
+        <v>15.05197717614028</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.59583756276172</v>
+        <v>15.95376943343789</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.08204626844024</v>
+        <v>18.09424951519873</v>
       </c>
       <c r="C21">
-        <v>6.88969870471881</v>
+        <v>10.02173969162779</v>
       </c>
       <c r="D21">
-        <v>5.027193184834267</v>
+        <v>5.016875439397559</v>
       </c>
       <c r="E21">
-        <v>20.80076994803952</v>
+        <v>38.82225265728621</v>
       </c>
       <c r="F21">
-        <v>24.45942861275837</v>
+        <v>21.85522079063667</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.912107166817567</v>
+        <v>15.87377047086176</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.55544488738954</v>
+        <v>16.26236578545591</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.35396088979218</v>
+        <v>18.74213460368741</v>
       </c>
       <c r="C22">
-        <v>7.018211269704229</v>
+        <v>10.29990495312655</v>
       </c>
       <c r="D22">
-        <v>5.061173671832614</v>
+        <v>5.101105028892153</v>
       </c>
       <c r="E22">
-        <v>21.54526994555995</v>
+        <v>40.43393090339561</v>
       </c>
       <c r="F22">
-        <v>24.49986109966788</v>
+        <v>22.37375270426612</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.17069553988727</v>
+        <v>16.39212865624364</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.53422322998391</v>
+        <v>16.48503832982762</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.20957287717488</v>
+        <v>18.39866809962438</v>
       </c>
       <c r="C23">
-        <v>6.949982286849937</v>
+        <v>10.15219276040665</v>
       </c>
       <c r="D23">
-        <v>5.043094976288482</v>
+        <v>5.05635820640875</v>
       </c>
       <c r="E23">
-        <v>21.15110724077333</v>
+        <v>39.57736373528367</v>
       </c>
       <c r="F23">
-        <v>24.47767274343281</v>
+        <v>22.09559527312884</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.03363346111814</v>
+        <v>16.11717291444831</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.54507442634601</v>
+        <v>16.36421774588876</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.64692532296122</v>
+        <v>17.04638936211647</v>
       </c>
       <c r="C24">
-        <v>6.683790588622301</v>
+        <v>9.576276253273534</v>
       </c>
       <c r="D24">
-        <v>4.973390982536907</v>
+        <v>4.882405190489798</v>
       </c>
       <c r="E24">
-        <v>19.58799111030698</v>
+        <v>36.25055712169605</v>
       </c>
       <c r="F24">
-        <v>24.40703689632937</v>
+        <v>21.0729534546466</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.499423301351545</v>
+        <v>15.03822681642412</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.59658482115925</v>
+        <v>15.94906741349106</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.00917268723481</v>
+        <v>15.47523086482323</v>
       </c>
       <c r="C25">
-        <v>6.380973029697323</v>
+        <v>8.920093529360111</v>
       </c>
       <c r="D25">
-        <v>4.895734711070337</v>
+        <v>4.685808897707677</v>
       </c>
       <c r="E25">
-        <v>17.75155183517436</v>
+        <v>32.46640447453711</v>
       </c>
       <c r="F25">
-        <v>24.359582982698</v>
+        <v>20.03569200724029</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.027665718823961</v>
+        <v>13.79311541738582</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.67421395519014</v>
+        <v>15.58567175371782</v>
       </c>
     </row>
   </sheetData>
